--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F0F559-BD05-4D85-ACBB-E0CD22A3A20A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A268640-5265-4114-BD5B-1937DC8A87F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -162,14 +162,17 @@
     <t>Max:</t>
   </si>
   <si>
-    <t>Fv</t>
+    <t>Azimuth</t>
+  </si>
+  <si>
+    <t>Altitude</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,6 +226,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -250,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -274,6 +282,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -556,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B35" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q61" sqref="Q61"/>
+    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="R57" sqref="R57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +587,7 @@
     <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
@@ -1387,6 +1398,12 @@
       <c r="H47">
         <v>660.9</v>
       </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
@@ -1408,11 +1425,8 @@
       <c r="H48">
         <v>655.1</v>
       </c>
-      <c r="O48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>0.37283564814814812</v>
       </c>
@@ -1438,12 +1452,14 @@
       <c r="M49" t="s">
         <v>42</v>
       </c>
-      <c r="O49">
-        <f>1/((2*PI()*L51^2))^(1/2)</f>
-        <v>0.12042268149823648</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O49" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>0.37321759259259263</v>
       </c>
@@ -1472,8 +1488,17 @@
       <c r="M50">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O50" t="s">
+        <v>38</v>
+      </c>
+      <c r="P50">
+        <v>312.00200000000001</v>
+      </c>
+      <c r="Q50">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>0.37354166666666666</v>
       </c>
@@ -1502,8 +1527,17 @@
       <c r="M51">
         <v>5.5100000000000003E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O51" t="s">
+        <v>39</v>
+      </c>
+      <c r="P51">
+        <v>2.3889800000000001</v>
+      </c>
+      <c r="Q51">
+        <v>5.5100000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>0.3739467592592593</v>
       </c>
@@ -1532,8 +1566,17 @@
       <c r="M52">
         <v>4.7199999999999999E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O52" t="s">
+        <v>40</v>
+      </c>
+      <c r="P52">
+        <v>0.98366299999999995</v>
+      </c>
+      <c r="Q52">
+        <v>4.7199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>0.37436342592592592</v>
       </c>
@@ -1556,14 +1599,23 @@
       <c r="K53" t="s">
         <v>41</v>
       </c>
-      <c r="L53">
-        <v>5646.81</v>
+      <c r="L53" s="21">
+        <v>364.68</v>
       </c>
       <c r="M53">
         <v>4.76</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O53" t="s">
+        <v>41</v>
+      </c>
+      <c r="P53">
+        <v>905.33500000000004</v>
+      </c>
+      <c r="Q53">
+        <v>4.76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="9">
         <v>0.3747685185185185</v>
       </c>
@@ -1584,7 +1636,7 @@
         <v>304.39999999999998</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="9">
         <v>0.37513888888888891</v>
       </c>
@@ -1607,8 +1659,11 @@
       <c r="K55" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O55" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="9">
         <v>0.37572916666666667</v>
       </c>
@@ -1631,11 +1686,19 @@
         <v>313</v>
       </c>
       <c r="K56">
-        <f>((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D56-$L$52)^2)/(2*$L$51^2))</f>
-        <v>1.3677696844008986E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+        <f>((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D56-$L$52)^2)/(2*$L$51^2))+$L$50</f>
+        <v>313.04908833274862</v>
+      </c>
+      <c r="O56" s="4">
+        <f>((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H39-$P$52)^2)/(2*$P$51^2))+$P$50</f>
+        <v>312.00200000000001</v>
+      </c>
+      <c r="P56">
+        <f>EXP(-((H39-$P$52)^2)/(2*$P$51^2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="9">
         <v>0.37606481481481485</v>
       </c>
@@ -1656,11 +1719,19 @@
         <v>316.10000000000002</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57:K72" si="2">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))</f>
-        <v>2.5104812675327524E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+        <f t="shared" ref="K57:K72" si="2">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))+$L$50</f>
+        <v>313.05062130886046</v>
+      </c>
+      <c r="O57" s="4">
+        <f t="shared" ref="O57:O72" si="3">((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H40-$P$52)^2)/(2*$P$51^2))+$P$50</f>
+        <v>312.00200000000001</v>
+      </c>
+      <c r="P57">
+        <f>EXP(-((H39-$P$52)^2)/(2*$P$51^2))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="9">
         <v>0.37643518518518521</v>
       </c>
@@ -1682,10 +1753,14 @@
       </c>
       <c r="K58">
         <f t="shared" si="2"/>
-        <v>0.3200483798249073</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+        <v>313.06966923504677</v>
+      </c>
+      <c r="O58" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="9">
         <v>0.37680555555555556</v>
       </c>
@@ -1707,10 +1782,14 @@
       </c>
       <c r="K59">
         <f t="shared" si="2"/>
-        <v>2.8339286859628974</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+        <v>313.23201963643135</v>
+      </c>
+      <c r="O59" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="9">
         <v>0.37731481481481483</v>
       </c>
@@ -1732,10 +1811,14 @@
       </c>
       <c r="K60">
         <f t="shared" si="2"/>
-        <v>17.429175300305687</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+        <v>314.17460395134867</v>
+      </c>
+      <c r="O60" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="9">
         <v>0.37783564814814818</v>
       </c>
@@ -1757,10 +1840,14 @@
       </c>
       <c r="K61">
         <f t="shared" si="2"/>
-        <v>74.452518830298629</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+        <v>317.85726246447695</v>
+      </c>
+      <c r="O61" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="9">
         <v>0.37820601851851854</v>
       </c>
@@ -1782,10 +1869,14 @@
       </c>
       <c r="K62">
         <f t="shared" si="2"/>
-        <v>220.90044392530959</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+        <v>327.31510314331132</v>
+      </c>
+      <c r="O62" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="9">
         <v>0.3785648148148148</v>
       </c>
@@ -1807,10 +1898,14 @@
       </c>
       <c r="K63">
         <f t="shared" si="2"/>
-        <v>455.22742552414496</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+        <v>342.44831351331902</v>
+      </c>
+      <c r="O63" s="4">
+        <f>((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H46-$P$52)^2)/(2*$P$51^2))+$P$50</f>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="9">
         <v>0.3790162037037037</v>
       </c>
@@ -1832,10 +1927,14 @@
       </c>
       <c r="K64">
         <f t="shared" si="2"/>
-        <v>651.59071175376778</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+        <v>355.12976786050245</v>
+      </c>
+      <c r="O64" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="9">
         <v>0.37952546296296297</v>
       </c>
@@ -1857,10 +1956,14 @@
       </c>
       <c r="K65">
         <f t="shared" si="2"/>
-        <v>647.79260763922457</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+        <v>354.88448023642945</v>
+      </c>
+      <c r="O65" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="9">
         <v>0.37996527777777778</v>
       </c>
@@ -1882,10 +1985,14 @@
       </c>
       <c r="K66">
         <f t="shared" si="2"/>
-        <v>447.31321307743031</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+        <v>341.93720104538266</v>
+      </c>
+      <c r="O66" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="9">
         <v>0.38030092592592596</v>
       </c>
@@ -1907,10 +2014,14 @@
       </c>
       <c r="K67">
         <f t="shared" si="2"/>
-        <v>214.53695018144941</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+        <v>326.90413856357321</v>
+      </c>
+      <c r="O67" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="9">
         <v>0.38081018518518522</v>
       </c>
@@ -1932,10 +2043,14 @@
       </c>
       <c r="K68">
         <f t="shared" si="2"/>
-        <v>71.467257134293789</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+        <v>317.66446950078614</v>
+      </c>
+      <c r="O68" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="9">
         <v>0.38122685185185184</v>
       </c>
@@ -1957,10 +2072,14 @@
       </c>
       <c r="K69">
         <f t="shared" si="2"/>
-        <v>16.535859094147124</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+        <v>314.11691216535593</v>
+      </c>
+      <c r="O69" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9">
         <v>0.38184027777777779</v>
       </c>
@@ -1982,10 +2101,14 @@
       </c>
       <c r="K70">
         <f t="shared" si="2"/>
-        <v>2.6574251920854564</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313.22062075916307</v>
+      </c>
+      <c r="O70" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="9">
         <v>0.38221064814814815</v>
       </c>
@@ -2007,10 +2130,14 @@
       </c>
       <c r="K71">
         <f t="shared" si="2"/>
-        <v>0.29662651475438673</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313.06815661362793</v>
+      </c>
+      <c r="O71" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="9">
         <v>0.3825810185185185</v>
       </c>
@@ -2032,13 +2159,17 @@
       </c>
       <c r="K72">
         <f t="shared" si="2"/>
-        <v>2.2997123986100244E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+        <v>313.05048519096181</v>
+      </c>
+      <c r="O72" s="4">
+        <f t="shared" si="3"/>
+        <v>312.00200000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B73" s="4"/>
     </row>
-    <row r="74" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>3</v>
       </c>
@@ -2050,7 +2181,7 @@
       <c r="E74" s="11"/>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
         <v>9</v>
       </c>
@@ -2062,7 +2193,7 @@
       <c r="E75" s="11"/>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
         <v>6</v>
       </c>
@@ -2078,7 +2209,7 @@
       <c r="E76" s="11"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="11">
         <v>84</v>
       </c>
@@ -2094,7 +2225,7 @@
       <c r="E77" s="11"/>
       <c r="F77" s="11"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="11">
         <v>84</v>
       </c>
@@ -2108,7 +2239,7 @@
       <c r="E78" s="11"/>
       <c r="F78" s="11"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="11">
         <v>84</v>
       </c>
@@ -2122,7 +2253,7 @@
       <c r="E79" s="11"/>
       <c r="F79" s="11"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="11">
         <v>84</v>
       </c>
@@ -2423,7 +2554,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="3">A89+5</f>
+        <f t="shared" ref="A90:A100" si="4">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2454,7 +2585,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -2479,7 +2610,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -2504,7 +2635,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -2554,7 +2685,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -2585,7 +2716,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -2616,7 +2747,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -2702,7 +2833,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -2745,7 +2876,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -2831,7 +2962,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="4">A101+10</f>
+        <f t="shared" ref="A102:A110" si="5">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -2923,7 +3054,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -2978,7 +3109,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3015,7 +3146,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3070,7 +3201,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3125,7 +3256,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3193,7 +3324,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3371,7 +3502,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="5">A118+5</f>
+        <f t="shared" ref="A119:A127" si="6">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3388,7 +3519,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3405,7 +3536,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3422,7 +3553,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -3489,7 +3620,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -3506,7 +3637,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -3616,7 +3747,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="6">A133+5</f>
+        <f t="shared" ref="A134:A142" si="7">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -3633,7 +3764,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -3650,7 +3781,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -3667,7 +3798,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -3734,7 +3865,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -3751,7 +3882,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A268640-5265-4114-BD5B-1937DC8A87F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF880673-13CA-4F3B-8C98-C503190B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E34" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="R57" sqref="R57"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2448,7 +2448,7 @@
         <v>38</v>
       </c>
       <c r="B87" s="14">
-        <v>0.2132523148148148</v>
+        <v>0.25197916666666698</v>
       </c>
       <c r="C87" s="11">
         <v>60</v>
@@ -2490,7 +2490,7 @@
         <v>43</v>
       </c>
       <c r="B88" s="14">
-        <v>0.21461805555555555</v>
+        <v>0.293645833333333</v>
       </c>
       <c r="C88" s="11">
         <v>60</v>
@@ -2527,7 +2527,7 @@
         <v>48</v>
       </c>
       <c r="B89" s="14">
-        <v>0.21581018518518516</v>
+        <v>0.33531250000000001</v>
       </c>
       <c r="C89" s="11">
         <v>60</v>
@@ -2558,7 +2558,7 @@
         <v>53</v>
       </c>
       <c r="B90" s="14">
-        <v>0.21711805555555555</v>
+        <v>0.37697916666666698</v>
       </c>
       <c r="C90" s="11">
         <v>60</v>
@@ -2589,7 +2589,7 @@
         <v>58</v>
       </c>
       <c r="B91" s="14">
-        <v>0.2182638888888889</v>
+        <v>0.418645833333333</v>
       </c>
       <c r="C91" s="11">
         <v>60</v>
@@ -2614,7 +2614,7 @@
         <v>63</v>
       </c>
       <c r="B92" s="14">
-        <v>0.21937499999999999</v>
+        <v>0.46031250000000001</v>
       </c>
       <c r="C92" s="11">
         <v>60</v>
@@ -2639,7 +2639,7 @@
         <v>68</v>
       </c>
       <c r="B93" s="14">
-        <v>0.22052083333333336</v>
+        <v>0.50197916666666698</v>
       </c>
       <c r="C93" s="11">
         <v>60</v>
@@ -2664,7 +2664,7 @@
         <v>73</v>
       </c>
       <c r="B94" s="14">
-        <v>0.22430555555555556</v>
+        <v>0.54364583333333305</v>
       </c>
       <c r="C94" s="11">
         <v>60</v>
@@ -2689,7 +2689,7 @@
         <v>78</v>
       </c>
       <c r="B95" s="14">
-        <v>0.22555555555555554</v>
+        <v>0.58531250000000001</v>
       </c>
       <c r="C95" s="11">
         <v>60</v>
@@ -2720,7 +2720,7 @@
         <v>83</v>
       </c>
       <c r="B96" s="14">
-        <v>0.2268287037037037</v>
+        <v>0.62697916666666698</v>
       </c>
       <c r="C96" s="11">
         <v>60</v>
@@ -2751,7 +2751,7 @@
         <v>88</v>
       </c>
       <c r="B97" s="14">
-        <v>0.2290972222222222</v>
+        <v>0.66864583333333305</v>
       </c>
       <c r="C97" s="11">
         <v>60</v>
@@ -2788,7 +2788,7 @@
         <v>93</v>
       </c>
       <c r="B98" s="14">
-        <v>0.23594907407407406</v>
+        <v>0.71031250000000001</v>
       </c>
       <c r="C98" s="11">
         <v>60</v>
@@ -2837,7 +2837,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="14">
-        <v>0.23824074074074075</v>
+        <v>0.75197916666666698</v>
       </c>
       <c r="C99" s="11">
         <v>60</v>
@@ -2880,7 +2880,7 @@
         <v>103</v>
       </c>
       <c r="B100" s="14">
-        <v>0.23997685185185183</v>
+        <v>0.79364583333333305</v>
       </c>
       <c r="C100" s="11">
         <v>60</v>
@@ -2917,7 +2917,7 @@
         <v>113</v>
       </c>
       <c r="B101" s="14">
-        <v>0.24944444444444444</v>
+        <v>0.83531250000000001</v>
       </c>
       <c r="C101" s="11">
         <v>60</v>
@@ -2966,7 +2966,7 @@
         <v>123</v>
       </c>
       <c r="B102" s="14">
-        <v>0.25062499999999999</v>
+        <v>0.87697916666666698</v>
       </c>
       <c r="C102" s="11">
         <v>60</v>
@@ -3015,7 +3015,7 @@
         <v>133</v>
       </c>
       <c r="B103" s="14">
-        <v>0.25166666666666665</v>
+        <v>0.91864583333333305</v>
       </c>
       <c r="C103" s="11">
         <v>60</v>
@@ -3058,7 +3058,7 @@
         <v>143</v>
       </c>
       <c r="B104" s="14">
-        <v>0.25284722222222222</v>
+        <v>0.96031250000000001</v>
       </c>
       <c r="C104" s="11">
         <v>60</v>
@@ -3113,7 +3113,7 @@
         <v>153</v>
       </c>
       <c r="B105" s="14">
-        <v>0.25415509259259256</v>
+        <v>1.00197916666667</v>
       </c>
       <c r="C105" s="11">
         <v>60</v>
@@ -3150,7 +3150,7 @@
         <v>163</v>
       </c>
       <c r="B106" s="14">
-        <v>0.25556712962962963</v>
+        <v>1.0436458333333301</v>
       </c>
       <c r="C106" s="11">
         <v>60</v>
@@ -3205,7 +3205,7 @@
         <v>173</v>
       </c>
       <c r="B107" s="14">
-        <v>0.25745370370370368</v>
+        <v>1.0853124999999999</v>
       </c>
       <c r="C107" s="11">
         <v>60</v>
@@ -3260,7 +3260,7 @@
         <v>183</v>
       </c>
       <c r="B108" s="14">
-        <v>0.34049768518518514</v>
+        <v>1.12697916666667</v>
       </c>
       <c r="C108" s="11">
         <v>60</v>
@@ -3297,7 +3297,7 @@
         <v>193</v>
       </c>
       <c r="B109" s="14">
-        <v>0.34300925925925929</v>
+        <v>1.1686458333333301</v>
       </c>
       <c r="C109" s="11">
         <v>60</v>
@@ -3328,7 +3328,7 @@
         <v>203</v>
       </c>
       <c r="B110" s="14">
-        <v>0.40418981481481481</v>
+        <v>1.2103124999999999</v>
       </c>
       <c r="C110" s="11">
         <v>60</v>

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF880673-13CA-4F3B-8C98-C503190B657A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB11D7-2549-4F81-AB7B-0F402D858098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -166,6 +166,96 @@
   </si>
   <si>
     <t>Altitude</t>
+  </si>
+  <si>
+    <t>Öffnung Teleskop</t>
+  </si>
+  <si>
+    <t>Az</t>
+  </si>
+  <si>
+    <t>Alt</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>fwhm</t>
+  </si>
+  <si>
+    <t>const</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>Std-Wert</t>
+  </si>
+  <si>
+    <t>FWHM-Wert</t>
+  </si>
+  <si>
+    <t>D:</t>
+  </si>
+  <si>
+    <t>c2</t>
+  </si>
+  <si>
+    <t>2. Variante</t>
+  </si>
+  <si>
+    <t>1. Variante</t>
+  </si>
+  <si>
+    <t>c3</t>
+  </si>
+  <si>
+    <t>Gewichte</t>
+  </si>
+  <si>
+    <t>gewichte</t>
+  </si>
+  <si>
+    <t>uint</t>
+  </si>
+  <si>
+    <t>uex</t>
+  </si>
+  <si>
+    <t>gwichteter MW vorab</t>
+  </si>
+  <si>
+    <t>stabw</t>
+  </si>
+  <si>
+    <t>Stabw(excel)</t>
+  </si>
+  <si>
+    <t>Stabw selber</t>
+  </si>
+  <si>
+    <t>von einzel Werten</t>
+  </si>
+  <si>
+    <t>zusatz werte</t>
+  </si>
+  <si>
+    <t>alt</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>u(d)</t>
   </si>
 </sst>
 </file>
@@ -258,7 +348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -285,6 +375,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -565,10 +656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T144"/>
+  <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,9 +682,11 @@
     <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -601,27 +694,45 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6">
+        <v>0.98366200000000004</v>
+      </c>
+      <c r="P6">
+        <v>0.96792699999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1410</v>
       </c>
@@ -629,8 +740,17 @@
         <v>24</v>
       </c>
       <c r="H7" s="11"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="N7" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7">
+        <v>4.7730000000000002E-2</v>
+      </c>
+      <c r="P7">
+        <v>4.7239999999999997E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -655,8 +775,11 @@
       <c r="H8" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K8" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.35391203703703705</v>
       </c>
@@ -678,8 +801,14 @@
       <c r="H9">
         <v>308.3</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="P9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.35440972222222222</v>
       </c>
@@ -698,8 +827,38 @@
       <c r="H10">
         <v>318.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K10" t="s">
+        <v>47</v>
+      </c>
+      <c r="L10" t="s">
+        <v>50</v>
+      </c>
+      <c r="M10" t="s">
+        <v>42</v>
+      </c>
+      <c r="N10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>42</v>
+      </c>
+      <c r="R10" t="s">
+        <v>64</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10" t="s">
+        <v>66</v>
+      </c>
+      <c r="W10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>0.35487268518518517</v>
       </c>
@@ -718,8 +877,47 @@
       <c r="H11">
         <v>324.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K11" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11">
+        <v>3.3129200000000001</v>
+      </c>
+      <c r="M11">
+        <v>5.5120000000000002E-2</v>
+      </c>
+      <c r="N11">
+        <f>1/M11^2</f>
+        <v>329.14069527153845</v>
+      </c>
+      <c r="P11">
+        <v>2.3889800000000001</v>
+      </c>
+      <c r="Q11">
+        <v>5.2330000000000002E-2</v>
+      </c>
+      <c r="R11">
+        <f>1/Q11^2</f>
+        <v>365.1728916533126</v>
+      </c>
+      <c r="T11">
+        <f>(L11*N11+P11*R11)/(N11+R11)</f>
+        <v>2.8269755393586444</v>
+      </c>
+      <c r="U11">
+        <f>(1/(N11+R11))^(1/2)</f>
+        <v>3.7950907726869078E-2</v>
+      </c>
+      <c r="V11">
+        <f>(((N11*(L11-T11)^2)+(R11*(P11-T11)^2))/(R11+N11))^(1/2)</f>
+        <v>0.46134748957478472</v>
+      </c>
+      <c r="W11">
+        <f>(((T11-P11)^2+(T11-L11)^2)^(1/2))/SQRT(2)</f>
+        <v>0.46259167271260282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>0.3552777777777778</v>
       </c>
@@ -738,8 +936,47 @@
       <c r="H12">
         <v>322.39999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L12">
+        <v>7.8</v>
+      </c>
+      <c r="M12">
+        <v>0.13</v>
+      </c>
+      <c r="N12">
+        <f t="shared" ref="N12:N26" si="0">1/M12^2</f>
+        <v>59.171597633136088</v>
+      </c>
+      <c r="P12">
+        <v>5.63</v>
+      </c>
+      <c r="Q12">
+        <v>0.12</v>
+      </c>
+      <c r="R12">
+        <f t="shared" ref="R12:R26" si="1">1/Q12^2</f>
+        <v>69.444444444444443</v>
+      </c>
+      <c r="T12">
+        <f>(L12*N12+P12*R12)/(N12+R12)</f>
+        <v>6.6283386581469657</v>
+      </c>
+      <c r="U12">
+        <f>(1/(N12+R12))^(1/2)</f>
+        <v>8.8176413355298564E-2</v>
+      </c>
+      <c r="V12">
+        <f>(((N12*(L12-T12)^2)+(R12*(P12-T12)^2))/(R12+N12))^(1/2)</f>
+        <v>1.0815335463258786</v>
+      </c>
+      <c r="W12">
+        <f>(((T12-P12)^2+(T12-L12)^2)^(1/2))/SQRT(2)</f>
+        <v>1.0884554139567537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>0.35570601851851852</v>
       </c>
@@ -758,8 +995,17 @@
       <c r="H13">
         <v>312.89999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13">
+        <v>1.22</v>
+      </c>
+      <c r="P13">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.3562731481481482</v>
       </c>
@@ -778,8 +1024,17 @@
       <c r="H14">
         <v>314.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="P14">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0.35671296296296301</v>
       </c>
@@ -798,8 +1053,17 @@
       <c r="H15">
         <v>312.89999999999998</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
+      <c r="L15" s="22">
+        <v>100000</v>
+      </c>
+      <c r="P15" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>0.35741898148148149</v>
       </c>
@@ -818,8 +1082,17 @@
       <c r="H16">
         <v>361.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L16" s="22">
+        <v>1420000000</v>
+      </c>
+      <c r="P16" s="22">
+        <v>1420000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>0.3578587962962963</v>
       </c>
@@ -838,8 +1111,17 @@
       <c r="H17">
         <v>327.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K17" t="s">
+        <v>54</v>
+      </c>
+      <c r="L17">
+        <v>299792458</v>
+      </c>
+      <c r="P17">
+        <v>299792458</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>0.35844907407407406</v>
       </c>
@@ -858,8 +1140,25 @@
       <c r="H18">
         <v>335.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K18" t="s">
+        <v>55</v>
+      </c>
+      <c r="L18" s="22">
+        <f>L17/L16</f>
+        <v>0.21112144929577464</v>
+      </c>
+      <c r="M18">
+        <v>0.21</v>
+      </c>
+      <c r="P18" s="22">
+        <f>P17/P16</f>
+        <v>0.21112144929577464</v>
+      </c>
+      <c r="Q18">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>0.35903935185185182</v>
       </c>
@@ -878,8 +1177,11 @@
       <c r="H19">
         <v>318.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>0.35951388888888891</v>
       </c>
@@ -898,8 +1200,11 @@
       <c r="H20">
         <v>387.3</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>0.36000000000000004</v>
       </c>
@@ -918,8 +1223,19 @@
       <c r="H21">
         <v>685.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K21" t="s">
+        <v>56</v>
+      </c>
+      <c r="L21" s="4">
+        <f>L13*L18/L11</f>
+        <v>7.7746570439625781E-2</v>
+      </c>
+      <c r="P21" s="4">
+        <f>P13*P18/P11</f>
+        <v>0.10781512115666311</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>0.3605902777777778</v>
       </c>
@@ -938,8 +1254,19 @@
       <c r="H22">
         <v>407.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K22" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="4">
+        <f>L13*L18/L12</f>
+        <v>3.3021560018057054E-2</v>
+      </c>
+      <c r="P22" s="4">
+        <f>P13*P18/P12</f>
+        <v>4.5749230575638553E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>0.36108796296296292</v>
       </c>
@@ -958,8 +1285,11 @@
       <c r="H23">
         <v>313.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>0.36185185185185187</v>
       </c>
@@ -978,8 +1308,11 @@
       <c r="H24">
         <v>329.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>0.36234953703703704</v>
       </c>
@@ -998,8 +1331,51 @@
       <c r="H25">
         <v>326</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K25" t="s">
+        <v>56</v>
+      </c>
+      <c r="L25" s="22">
+        <f>$L$14*$L$18/L11*$L$15</f>
+        <v>4.460868795716233</v>
+      </c>
+      <c r="M25" s="22">
+        <f>$L$14*$L$18/M11*$L$15</f>
+        <v>268.11504808969926</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="0"/>
+        <v>1.3910976619294318E-5</v>
+      </c>
+      <c r="P25" s="22">
+        <f>$P$14*$P$18/P11*$P$15</f>
+        <v>6.1861135089888668</v>
+      </c>
+      <c r="Q25" s="22">
+        <f>$P$14*$P$18/Q11*$P$15</f>
+        <v>282.40973534691807</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="1"/>
+        <v>1.2538358188776886E-5</v>
+      </c>
+      <c r="T25" s="22">
+        <f>$P$14*$P$18/T11*$P$15</f>
+        <v>5.227672204782154</v>
+      </c>
+      <c r="U25" s="22">
+        <f>$P$14*$P$18/U11*$P$15</f>
+        <v>389.41101375135509</v>
+      </c>
+      <c r="V25" s="22">
+        <f>$P$14*$P$18/V11*$P$15</f>
+        <v>32.033340994930505</v>
+      </c>
+      <c r="W25" s="22">
+        <f>$P$14*$P$18/W11*$P$15</f>
+        <v>31.947184358171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>0.3628703703703704</v>
       </c>
@@ -1018,8 +1394,51 @@
       <c r="H26">
         <v>318.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="K26" t="s">
+        <v>57</v>
+      </c>
+      <c r="L26" s="22">
+        <f>$L$14*$L$18/L12*$L$15</f>
+        <v>1.8946796731672082</v>
+      </c>
+      <c r="M26" s="22">
+        <f>$L$14*$L$18/M12*$L$15</f>
+        <v>113.68078039003248</v>
+      </c>
+      <c r="N26">
+        <f t="shared" si="0"/>
+        <v>7.7379497926832936E-5</v>
+      </c>
+      <c r="P26" s="22">
+        <f>$P$14*$P$18/P12*$P$15</f>
+        <v>2.6249558527005727</v>
+      </c>
+      <c r="Q26" s="22">
+        <f>$P$14*$P$18/Q12*$P$15</f>
+        <v>123.15417875586854</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="1"/>
+        <v>6.5932826635881292E-5</v>
+      </c>
+      <c r="T26" s="22">
+        <f>$P$14*$P$18/T12*$P$15</f>
+        <v>2.229593599979959</v>
+      </c>
+      <c r="U26" s="22">
+        <f>$P$14*$P$18/U12*$P$15</f>
+        <v>167.6015261718079</v>
+      </c>
+      <c r="V26" s="22">
+        <f>$P$14*$P$18/V12*$P$15</f>
+        <v>13.66439487791097</v>
+      </c>
+      <c r="W26" s="22">
+        <f>$P$14*$P$18/W12*$P$15</f>
+        <v>13.577498224737941</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>0.36346064814814816</v>
       </c>
@@ -1039,7 +1458,7 @@
         <v>307.60000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>0.36398148148148146</v>
       </c>
@@ -1058,8 +1477,18 @@
       <c r="H28">
         <v>315.60000000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="S28" t="s">
+        <v>71</v>
+      </c>
+      <c r="T28" t="s">
+        <v>69</v>
+      </c>
+      <c r="U28" s="22">
+        <f>STDEV(L26,P26)/SQRT(2)</f>
+        <v>0.36513808976668338</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>0.36464120370370368</v>
       </c>
@@ -1078,8 +1507,15 @@
       <c r="H29">
         <v>306.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>70</v>
+      </c>
+      <c r="U29" s="22">
+        <f>SQRT((L26-T26)^2+(P26-T26)^2)/SQRT(2)</f>
+        <v>0.36638685105326518</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>0.36515046296296294</v>
       </c>
@@ -1099,7 +1535,7 @@
         <v>313.39999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>0.3656712962962963</v>
       </c>
@@ -1119,7 +1555,7 @@
         <v>321.89999999999998</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>0.3661342592592593</v>
       </c>
@@ -1242,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E55" si="0">E39+2</f>
+        <f t="shared" ref="E40:E55" si="2">E39+2</f>
         <v>-14</v>
       </c>
       <c r="G40">
@@ -1263,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-12</v>
       </c>
       <c r="G41">
@@ -1284,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-10</v>
       </c>
       <c r="G42">
@@ -1305,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-8</v>
       </c>
       <c r="G43">
@@ -1326,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-6</v>
       </c>
       <c r="G44">
@@ -1347,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-4</v>
       </c>
       <c r="G45">
@@ -1368,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-2</v>
       </c>
       <c r="G46">
@@ -1389,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G47">
@@ -1416,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="G48">
@@ -1437,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="G49">
@@ -1470,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="G50">
@@ -1509,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="G51">
@@ -1548,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="G52">
@@ -1587,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="G53">
@@ -1626,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="G54">
@@ -1647,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="G55">
@@ -1706,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D72" si="1">D56+2</f>
+        <f t="shared" ref="D57:D72" si="3">D56+2</f>
         <v>-14</v>
       </c>
       <c r="E57">
@@ -1719,11 +2155,11 @@
         <v>316.10000000000002</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57:K72" si="2">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))+$L$50</f>
+        <f t="shared" ref="K57:K72" si="4">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))+$L$50</f>
         <v>313.05062130886046</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" ref="O57:O72" si="3">((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H40-$P$52)^2)/(2*$P$51^2))+$P$50</f>
+        <f t="shared" ref="O57:O72" si="5">((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H40-$P$52)^2)/(2*$P$51^2))+$P$50</f>
         <v>312.00200000000001</v>
       </c>
       <c r="P57">
@@ -1739,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
       <c r="E58">
@@ -1752,11 +2188,11 @@
         <v>321.10000000000002</v>
       </c>
       <c r="K58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>313.06966923504677</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1768,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="E59">
@@ -1781,11 +2217,11 @@
         <v>320.3</v>
       </c>
       <c r="K59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>313.23201963643135</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1797,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="E60">
@@ -1810,11 +2246,11 @@
         <v>316.10000000000002</v>
       </c>
       <c r="K60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>314.17460395134867</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1826,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="E61">
@@ -1839,11 +2275,11 @@
         <v>347</v>
       </c>
       <c r="K61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>317.85726246447695</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1855,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="E62">
@@ -1868,11 +2304,11 @@
         <v>435.5</v>
       </c>
       <c r="K62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>327.31510314331132</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1884,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="E63">
@@ -1897,7 +2333,7 @@
         <v>560</v>
       </c>
       <c r="K63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>342.44831351331902</v>
       </c>
       <c r="O63" s="4">
@@ -1913,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E64">
@@ -1926,11 +2362,11 @@
         <v>660.9</v>
       </c>
       <c r="K64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>355.12976786050245</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1942,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="E65">
@@ -1955,11 +2391,11 @@
         <v>654.5</v>
       </c>
       <c r="K65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>354.88448023642945</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -1971,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="E66">
@@ -1984,11 +2420,11 @@
         <v>561.20000000000005</v>
       </c>
       <c r="K66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>341.93720104538266</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2000,7 +2436,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="E67">
@@ -2013,11 +2449,11 @@
         <v>429.4</v>
       </c>
       <c r="K67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>326.90413856357321</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2029,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="E68">
@@ -2042,11 +2478,11 @@
         <v>344.2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>317.66446950078614</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2058,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="E69">
@@ -2071,11 +2507,11 @@
         <v>310.2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>314.11691216535593</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2087,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="E70">
@@ -2100,11 +2536,11 @@
         <v>315.2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>313.22062075916307</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2116,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="E71">
@@ -2129,11 +2565,11 @@
         <v>316.89999999999998</v>
       </c>
       <c r="K71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>313.06815661362793</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2145,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="E72">
@@ -2158,11 +2594,11 @@
         <v>314.39999999999998</v>
       </c>
       <c r="K72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>313.05048519096181</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2554,7 +2990,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="4">A89+5</f>
+        <f t="shared" ref="A90:A100" si="6">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -2585,7 +3021,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -2610,7 +3046,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -2635,7 +3071,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -2685,7 +3121,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -2716,7 +3152,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -2747,7 +3183,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -2833,7 +3269,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -2876,7 +3312,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -2962,7 +3398,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="5">A101+10</f>
+        <f t="shared" ref="A102:A110" si="7">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -3054,7 +3490,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -3109,7 +3545,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3146,7 +3582,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3201,7 +3637,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3256,7 +3692,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3324,7 +3760,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3502,7 +3938,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="6">A118+5</f>
+        <f t="shared" ref="A119:A127" si="8">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3519,7 +3955,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3536,7 +3972,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3553,7 +3989,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -3620,7 +4056,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -3637,7 +4073,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -3747,7 +4183,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="7">A133+5</f>
+        <f t="shared" ref="A134:A142" si="9">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -3764,7 +4200,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -3781,7 +4217,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -3798,7 +4234,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -3865,7 +4301,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -3882,7 +4318,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DDB11D7-2549-4F81-AB7B-0F402D858098}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6152A-D559-41E6-8C55-9ED8DE8CFB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,7 +658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
@@ -1359,19 +1359,19 @@
         <v>1.2538358188776886E-5</v>
       </c>
       <c r="T25" s="22">
-        <f>$P$14*$P$18/T11*$P$15</f>
+        <f t="shared" ref="T25:W26" si="2">$P$14*$P$18/T11*$P$15</f>
         <v>5.227672204782154</v>
       </c>
       <c r="U25" s="22">
-        <f>$P$14*$P$18/U11*$P$15</f>
+        <f t="shared" si="2"/>
         <v>389.41101375135509</v>
       </c>
       <c r="V25" s="22">
-        <f>$P$14*$P$18/V11*$P$15</f>
+        <f t="shared" si="2"/>
         <v>32.033340994930505</v>
       </c>
       <c r="W25" s="22">
-        <f>$P$14*$P$18/W11*$P$15</f>
+        <f t="shared" si="2"/>
         <v>31.947184358171</v>
       </c>
     </row>
@@ -1422,19 +1422,19 @@
         <v>6.5932826635881292E-5</v>
       </c>
       <c r="T26" s="22">
-        <f>$P$14*$P$18/T12*$P$15</f>
+        <f t="shared" si="2"/>
         <v>2.229593599979959</v>
       </c>
       <c r="U26" s="22">
-        <f>$P$14*$P$18/U12*$P$15</f>
+        <f t="shared" si="2"/>
         <v>167.6015261718079</v>
       </c>
       <c r="V26" s="22">
-        <f>$P$14*$P$18/V12*$P$15</f>
+        <f t="shared" si="2"/>
         <v>13.66439487791097</v>
       </c>
       <c r="W26" s="22">
-        <f>$P$14*$P$18/W12*$P$15</f>
+        <f t="shared" si="2"/>
         <v>13.577498224737941</v>
       </c>
     </row>
@@ -1678,7 +1678,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <f t="shared" ref="E40:E55" si="2">E39+2</f>
+        <f t="shared" ref="E40:E55" si="3">E39+2</f>
         <v>-14</v>
       </c>
       <c r="G40">
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-12</v>
       </c>
       <c r="G41">
@@ -1720,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-10</v>
       </c>
       <c r="G42">
@@ -1741,7 +1741,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8</v>
       </c>
       <c r="G43">
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6</v>
       </c>
       <c r="G44">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4</v>
       </c>
       <c r="G45">
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2</v>
       </c>
       <c r="G46">
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G47">
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="G48">
@@ -1873,7 +1873,7 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="G49">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="G50">
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="G51">
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="G52">
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="G53">
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="G54">
@@ -2083,7 +2083,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="G55">
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
       <c r="D57">
-        <f t="shared" ref="D57:D72" si="3">D56+2</f>
+        <f t="shared" ref="D57:D72" si="4">D56+2</f>
         <v>-14</v>
       </c>
       <c r="E57">
@@ -2155,11 +2155,11 @@
         <v>316.10000000000002</v>
       </c>
       <c r="K57">
-        <f t="shared" ref="K57:K72" si="4">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))+$L$50</f>
+        <f t="shared" ref="K57:K72" si="5">((((2*PI()*$L$51^2))^(1/2))^(-1))*$L$53*EXP(-((D57-$L$52)^2)/(2*$L$51^2))+$L$50</f>
         <v>313.05062130886046</v>
       </c>
       <c r="O57" s="4">
-        <f t="shared" ref="O57:O72" si="5">((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H40-$P$52)^2)/(2*$P$51^2))+$P$50</f>
+        <f t="shared" ref="O57:O72" si="6">((((2*PI()*$P$51^2))^(1/2))^(-1))*$P$53*EXP(-((H40-$P$52)^2)/(2*$P$51^2))+$P$50</f>
         <v>312.00200000000001</v>
       </c>
       <c r="P57">
@@ -2175,7 +2175,7 @@
         <v>10</v>
       </c>
       <c r="D58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-12</v>
       </c>
       <c r="E58">
@@ -2188,11 +2188,11 @@
         <v>321.10000000000002</v>
       </c>
       <c r="K58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.06966923504677</v>
       </c>
       <c r="O58" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2204,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="D59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-10</v>
       </c>
       <c r="E59">
@@ -2217,11 +2217,11 @@
         <v>320.3</v>
       </c>
       <c r="K59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.23201963643135</v>
       </c>
       <c r="O59" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2233,7 +2233,7 @@
         <v>10</v>
       </c>
       <c r="D60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8</v>
       </c>
       <c r="E60">
@@ -2246,11 +2246,11 @@
         <v>316.10000000000002</v>
       </c>
       <c r="K60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>314.17460395134867</v>
       </c>
       <c r="O60" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>10</v>
       </c>
       <c r="D61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6</v>
       </c>
       <c r="E61">
@@ -2275,11 +2275,11 @@
         <v>347</v>
       </c>
       <c r="K61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317.85726246447695</v>
       </c>
       <c r="O61" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
         <v>10</v>
       </c>
       <c r="D62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4</v>
       </c>
       <c r="E62">
@@ -2304,11 +2304,11 @@
         <v>435.5</v>
       </c>
       <c r="K62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>327.31510314331132</v>
       </c>
       <c r="O62" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
       <c r="D63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="E63">
@@ -2333,7 +2333,7 @@
         <v>560</v>
       </c>
       <c r="K63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>342.44831351331902</v>
       </c>
       <c r="O63" s="4">
@@ -2349,7 +2349,7 @@
         <v>10</v>
       </c>
       <c r="D64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E64">
@@ -2362,11 +2362,11 @@
         <v>660.9</v>
       </c>
       <c r="K64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>355.12976786050245</v>
       </c>
       <c r="O64" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
         <v>10</v>
       </c>
       <c r="D65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E65">
@@ -2391,11 +2391,11 @@
         <v>654.5</v>
       </c>
       <c r="K65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>354.88448023642945</v>
       </c>
       <c r="O65" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2407,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="D66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E66">
@@ -2420,11 +2420,11 @@
         <v>561.20000000000005</v>
       </c>
       <c r="K66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>341.93720104538266</v>
       </c>
       <c r="O66" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2436,7 +2436,7 @@
         <v>10</v>
       </c>
       <c r="D67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="E67">
@@ -2449,11 +2449,11 @@
         <v>429.4</v>
       </c>
       <c r="K67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>326.90413856357321</v>
       </c>
       <c r="O67" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="D68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="E68">
@@ -2478,11 +2478,11 @@
         <v>344.2</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>317.66446950078614</v>
       </c>
       <c r="O68" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="D69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="E69">
@@ -2507,11 +2507,11 @@
         <v>310.2</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>314.11691216535593</v>
       </c>
       <c r="O69" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2523,7 +2523,7 @@
         <v>10</v>
       </c>
       <c r="D70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="E70">
@@ -2536,11 +2536,11 @@
         <v>315.2</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.22062075916307</v>
       </c>
       <c r="O70" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2552,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="D71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="E71">
@@ -2565,11 +2565,11 @@
         <v>316.89999999999998</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.06815661362793</v>
       </c>
       <c r="O71" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2581,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="D72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="E72">
@@ -2594,11 +2594,11 @@
         <v>314.39999999999998</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>313.05048519096181</v>
       </c>
       <c r="O72" s="4">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>312.00200000000001</v>
       </c>
     </row>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="11">
-        <f t="shared" ref="A90:A100" si="6">A89+5</f>
+        <f t="shared" ref="A90:A100" si="7">A89+5</f>
         <v>53</v>
       </c>
       <c r="B90" s="14">
@@ -3021,7 +3021,7 @@
     </row>
     <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58</v>
       </c>
       <c r="B91" s="14">
@@ -3046,7 +3046,7 @@
     </row>
     <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63</v>
       </c>
       <c r="B92" s="14">
@@ -3071,7 +3071,7 @@
     </row>
     <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>68</v>
       </c>
       <c r="B93" s="14">
@@ -3121,7 +3121,7 @@
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>78</v>
       </c>
       <c r="B95" s="14">
@@ -3152,7 +3152,7 @@
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>83</v>
       </c>
       <c r="B96" s="14">
@@ -3183,7 +3183,7 @@
     </row>
     <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>88</v>
       </c>
       <c r="B97" s="14">
@@ -3269,7 +3269,7 @@
     </row>
     <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="B99" s="14">
@@ -3312,7 +3312,7 @@
     </row>
     <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103</v>
       </c>
       <c r="B100" s="14">
@@ -3398,7 +3398,7 @@
     </row>
     <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="11">
-        <f t="shared" ref="A102:A110" si="7">A101+10</f>
+        <f t="shared" ref="A102:A110" si="8">A101+10</f>
         <v>123</v>
       </c>
       <c r="B102" s="14">
@@ -3490,7 +3490,7 @@
     </row>
     <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>143</v>
       </c>
       <c r="B104" s="14">
@@ -3545,7 +3545,7 @@
     </row>
     <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>153</v>
       </c>
       <c r="B105" s="14">
@@ -3582,7 +3582,7 @@
     </row>
     <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>163</v>
       </c>
       <c r="B106" s="14">
@@ -3637,7 +3637,7 @@
     </row>
     <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>173</v>
       </c>
       <c r="B107" s="14">
@@ -3692,7 +3692,7 @@
     </row>
     <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>183</v>
       </c>
       <c r="B108" s="14">
@@ -3760,7 +3760,7 @@
     </row>
     <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>203</v>
       </c>
       <c r="B110" s="14">
@@ -3938,7 +3938,7 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="11">
-        <f t="shared" ref="A119:A127" si="8">A118+5</f>
+        <f t="shared" ref="A119:A127" si="9">A118+5</f>
         <v>53</v>
       </c>
       <c r="B119" s="11">
@@ -3955,7 +3955,7 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>58</v>
       </c>
       <c r="B120" s="11">
@@ -3972,7 +3972,7 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>63</v>
       </c>
       <c r="B121" s="11">
@@ -3989,7 +3989,7 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68</v>
       </c>
       <c r="B122" s="11">
@@ -4056,7 +4056,7 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>83</v>
       </c>
       <c r="B126" s="11">
@@ -4073,7 +4073,7 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="B127" s="11">
@@ -4183,7 +4183,7 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="11">
-        <f t="shared" ref="A134:A142" si="9">A133+5</f>
+        <f t="shared" ref="A134:A142" si="10">A133+5</f>
         <v>53</v>
       </c>
       <c r="B134" s="11">
@@ -4200,7 +4200,7 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>58</v>
       </c>
       <c r="B135" s="11">
@@ -4217,7 +4217,7 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>63</v>
       </c>
       <c r="B136" s="11">
@@ -4234,7 +4234,7 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>68</v>
       </c>
       <c r="B137" s="11">
@@ -4301,7 +4301,7 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="B141" s="11">
@@ -4318,7 +4318,7 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="11">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>88</v>
       </c>
       <c r="B142" s="11">

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6152A-D559-41E6-8C55-9ED8DE8CFB0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC05979-3A08-4A93-93F8-92C72DEAC006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" topLeftCell="P9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,6 +1574,7 @@
       <c r="H32">
         <v>314.7</v>
       </c>
+      <c r="L32" s="4"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="9">

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC05979-3A08-4A93-93F8-92C72DEAC006}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BD228-634E-4569-8FA1-E277341520E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -658,8 +658,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1422,7 +1422,7 @@
         <v>6.5932826635881292E-5</v>
       </c>
       <c r="T26" s="22">
-        <f t="shared" si="2"/>
+        <f>$P$14*$P$18/T12*$P$15</f>
         <v>2.229593599979959</v>
       </c>
       <c r="U26" s="22">

--- a/Messprotokoll_Philipp.xlsx
+++ b/Messprotokoll_Philipp.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855BD228-634E-4569-8FA1-E277341520E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6DFE43-2412-4D49-A736-48DF7A6234F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10164" yWindow="2544" windowWidth="12084" windowHeight="7920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
   <si>
     <t>Simon Keegan, Philipp Gebauer</t>
   </si>
@@ -256,13 +256,34 @@
   </si>
   <si>
     <t>u(d)</t>
+  </si>
+  <si>
+    <t>einzelne Durchmesser</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alt </t>
+  </si>
+  <si>
+    <t>Druchmesser</t>
+  </si>
+  <si>
+    <t>Durchmesser</t>
+  </si>
+  <si>
+    <t>korrekte u_c -&gt;</t>
+  </si>
+  <si>
+    <t>U_c</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -321,6 +342,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -348,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -376,6 +404,8 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -656,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W144"/>
+  <dimension ref="A1:AC144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,7 +716,7 @@
     <col min="20" max="20" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:29" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -694,17 +724,17 @@
         <v>43964</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -718,7 +748,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -732,7 +762,7 @@
         <v>0.96792699999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>1410</v>
       </c>
@@ -750,7 +780,7 @@
         <v>4.7239999999999997E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
@@ -779,7 +809,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>0.35391203703703705</v>
       </c>
@@ -807,8 +837,11 @@
       <c r="T9" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>0.35440972222222222</v>
       </c>
@@ -857,8 +890,20 @@
       <c r="W10" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>0.35487268518518517</v>
       </c>
@@ -916,8 +961,20 @@
         <f>(((T11-P11)^2+(T11-L11)^2)^(1/2))/SQRT(2)</f>
         <v>0.46259167271260282</v>
       </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Z11" s="22">
+        <f>$P$14*$P$18/L12*$P$15</f>
+        <v>1.8946796731672082</v>
+      </c>
+      <c r="AB11" s="22">
+        <f>$P$14*$P$18/P12*$P$15</f>
+        <v>2.6249558527005727</v>
+      </c>
+      <c r="AC11" s="22">
+        <f>2*SQRT((U29)^2-(M27/2)^2)</f>
+        <v>0.72390191232571233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>0.3552777777777778</v>
       </c>
@@ -976,7 +1033,7 @@
         <v>1.0884554139567537</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>0.35570601851851852</v>
       </c>
@@ -1005,7 +1062,7 @@
         <v>1.22</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>0.3562731481481482</v>
       </c>
@@ -1034,7 +1091,7 @@
         <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>0.35671296296296301</v>
       </c>
@@ -1063,7 +1120,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>0.35741898148148149</v>
       </c>
@@ -1257,7 +1314,7 @@
       <c r="K22" t="s">
         <v>57</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="22">
         <f>L13*L18/L12</f>
         <v>3.3021560018057054E-2</v>
       </c>
@@ -1397,7 +1454,7 @@
       <c r="K26" t="s">
         <v>57</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="24">
         <f>$L$14*$L$18/L12*$L$15</f>
         <v>1.8946796731672082</v>
       </c>
@@ -1405,11 +1462,11 @@
         <f>$L$14*$L$18/M12*$L$15</f>
         <v>113.68078039003248</v>
       </c>
-      <c r="N26">
-        <f t="shared" si="0"/>
+      <c r="N26" s="22">
+        <f>1/M26^2</f>
         <v>7.7379497926832936E-5</v>
       </c>
-      <c r="P26" s="22">
+      <c r="P26" s="24">
         <f>$P$14*$P$18/P12*$P$15</f>
         <v>2.6249558527005727</v>
       </c>
@@ -1457,6 +1514,16 @@
       <c r="H27">
         <v>307.60000000000002</v>
       </c>
+      <c r="L27" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="22">
+        <f>M26/1000</f>
+        <v>0.11368078039003249</v>
+      </c>
+      <c r="P27" s="23" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
@@ -1507,6 +1574,17 @@
       <c r="H29">
         <v>306.7</v>
       </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="22">
+        <f>$L$14*$L$15*$L$18/(L12)^2*M12</f>
+        <v>3.1577994552786808E-2</v>
+      </c>
+      <c r="Q29" s="22">
+        <f>$L$14*$L$15*$L$18/(P12)^2*Q12</f>
+        <v>5.5949325457205809E-2</v>
+      </c>
       <c r="T29" t="s">
         <v>70</v>
       </c>
@@ -1533,6 +1611,13 @@
       </c>
       <c r="H30">
         <v>313.39999999999998</v>
+      </c>
+      <c r="T30" t="s">
+        <v>81</v>
+      </c>
+      <c r="U30">
+        <f>SQRT((M29/2)^2+(Q29/2)^2)</f>
+        <v>3.2122798598083618E-2</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
